--- a/Bibsam_tidskriftslistor/scifree_data_royalmedicine_hybrid.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_royalmedicine_hybrid.xlsx
@@ -57,18 +57,12 @@
     <t>Clinical Ethics</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinical Risk </t>
-  </si>
-  <si>
     <t xml:space="preserve">Experimental Biology and Medicine </t>
   </si>
   <si>
     <t xml:space="preserve">Hand Therapy </t>
   </si>
   <si>
-    <t xml:space="preserve">Handbook of Practice Management </t>
-  </si>
-  <si>
     <t xml:space="preserve">Health Services Management Research </t>
   </si>
   <si>
@@ -132,18 +126,12 @@
     <t>1477-7509</t>
   </si>
   <si>
-    <t>1356-2622</t>
-  </si>
-  <si>
     <t>1535-3702</t>
   </si>
   <si>
     <t>1758-9983</t>
   </si>
   <si>
-    <t>0962-144X</t>
-  </si>
-  <si>
     <t>9514-4848</t>
   </si>
   <si>
@@ -204,18 +192,12 @@
     <t>1758-101X</t>
   </si>
   <si>
-    <t>1758-1028</t>
-  </si>
-  <si>
     <t>1535-3699</t>
   </si>
   <si>
     <t>1758-9991</t>
   </si>
   <si>
-    <t>2047-718X</t>
-  </si>
-  <si>
     <t>1758-1044</t>
   </si>
   <si>
@@ -276,18 +258,12 @@
     <t>http://journals.sagepub.com/home/cet</t>
   </si>
   <si>
-    <t>http://journals.sagepub.com/home/cri</t>
-  </si>
-  <si>
     <t>http://journals.sagepub.com/home/ebm</t>
   </si>
   <si>
     <t>http://journals.sagepub.com/home/hth</t>
   </si>
   <si>
-    <t>http://journals.sagepub.com/home/hpm</t>
-  </si>
-  <si>
     <t>http://journals.sagepub.com/home/hsm</t>
   </si>
   <si>
@@ -337,6 +313,30 @@
   </si>
   <si>
     <t>http://journals.sagepub.com/home/vas</t>
+  </si>
+  <si>
+    <t>Journal of Patient Safety and Risk Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of the Royal Society of Medicine </t>
+  </si>
+  <si>
+    <t>1758-1095</t>
+  </si>
+  <si>
+    <t>0410-0768</t>
+  </si>
+  <si>
+    <t>http://journals.sagepub.com/home/jrs</t>
+  </si>
+  <si>
+    <t>2516-0443</t>
+  </si>
+  <si>
+    <t>2516-0435</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/CRI</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -420,10 +430,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G25" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G25" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:G25"/>
-  <sortState ref="A2:G27">
-    <sortCondition ref="D1:D27"/>
+  <sortState ref="A2:G25">
+    <sortCondition ref="D1:D25"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -710,7 +720,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -741,19 +751,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -764,19 +774,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -787,19 +797,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -810,19 +820,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -833,19 +843,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -856,19 +866,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -879,19 +889,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -902,19 +912,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -925,19 +935,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -948,19 +958,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -971,19 +981,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -994,19 +1004,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1017,19 +1027,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1040,19 +1050,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1063,19 +1073,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1086,19 +1096,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1109,19 +1119,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1132,19 +1142,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1155,19 +1165,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1178,19 +1188,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1201,19 +1211,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1224,19 +1234,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1247,19 +1257,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1270,19 +1280,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1292,6 +1302,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/scifree_data_royalmedicine_hybrid.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_royalmedicine_hybrid.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2B87336F5F4D2A7E649C04A305E36DBFE368FBB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031ED5E8-6D73-4E86-9B73-126107A80ED7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -57,9 +58,6 @@
     <t>Clinical Ethics</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimental Biology and Medicine </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hand Therapy </t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>1477-7509</t>
   </si>
   <si>
-    <t>1535-3702</t>
-  </si>
-  <si>
     <t>1758-9983</t>
   </si>
   <si>
@@ -192,9 +187,6 @@
     <t>1758-101X</t>
   </si>
   <si>
-    <t>1535-3699</t>
-  </si>
-  <si>
     <t>1758-9991</t>
   </si>
   <si>
@@ -256,9 +248,6 @@
   </si>
   <si>
     <t>http://journals.sagepub.com/home/cet</t>
-  </si>
-  <si>
-    <t>http://journals.sagepub.com/home/ebm</t>
   </si>
   <si>
     <t>http://journals.sagepub.com/home/hth</t>
@@ -342,17 +331,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -380,43 +361,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -430,19 +381,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G25"/>
-  <sortState ref="A2:G25">
-    <sortCondition ref="D1:D25"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7233B194-C318-40ED-88CA-4A1D3C1BCC2B}" name="Table2" displayName="Table2" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24" xr:uid="{7233B194-C318-40ED-88CA-4A1D3C1BCC2B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{0AE87464-3070-44CE-8FD9-912D3903AF53}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{4F747AAA-C224-4E36-BCCA-9CB8C74F17A7}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{8C615DEB-795D-4A86-981B-41E8749A0D62}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{1EA1693D-F2BA-4002-BF76-DA0B60B0DE9E}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{162F6B60-C736-45E5-931E-6274A9C6B0B9}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{B2696AB7-DBCB-4748-AC40-059A9F14B996}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{0E6513F1-1673-4BED-B155-33AB4B18A11F}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,60 +658,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D52C3-67E0-4AB5-AAFA-A3C5FFDD95DE}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -774,19 +724,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -797,19 +747,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -820,19 +770,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -843,19 +793,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -866,19 +816,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -889,19 +839,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -912,19 +862,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -935,19 +885,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -958,19 +908,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -981,19 +931,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1004,19 +954,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1027,19 +977,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1050,19 +1000,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1073,19 +1023,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1096,19 +1046,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1119,19 +1069,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1142,19 +1092,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1165,19 +1115,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1188,19 +1138,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1211,19 +1161,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1234,19 +1184,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1257,19 +1207,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1278,37 +1228,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_royalmedicine_hybrid.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_royalmedicine_hybrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B87336F5F4D2A7E649C04A305E36DBFE368FBB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031ED5E8-6D73-4E86-9B73-126107A80ED7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2B87336F5F4D2A7E649C04A305E36DBFE368FBB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD137C3-10D5-40E4-8837-D576B81DE1FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,66 +52,21 @@
     <t>Acta Radiologica</t>
   </si>
   <si>
-    <t xml:space="preserve">Annals of Clinical Biochemistry </t>
-  </si>
-  <si>
     <t>Clinical Ethics</t>
   </si>
   <si>
-    <t xml:space="preserve">Hand Therapy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Services Management Research </t>
-  </si>
-  <si>
     <t>International Journal of Care Coordination</t>
   </si>
   <si>
-    <t xml:space="preserve">International Journal of STD and AIDS </t>
-  </si>
-  <si>
-    <t>Journal of Health Services Research and Policy</t>
-  </si>
-  <si>
     <t>Journal of Medical Biography</t>
   </si>
   <si>
-    <t xml:space="preserve">Journal of Medical Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of Telemedicine and Telecare </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory Animals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicine, Science and the Law </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medico-Legal journal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstetric Medicine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phlebology </t>
-  </si>
-  <si>
     <t>Post Reproductive Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Scottish Medical Journal </t>
-  </si>
-  <si>
     <t>Tropical Doctor</t>
   </si>
   <si>
-    <t xml:space="preserve">Ultrasound </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular </t>
-  </si>
-  <si>
     <t>Royal Society of Medicine</t>
   </si>
   <si>
@@ -307,9 +262,6 @@
     <t>Journal of Patient Safety and Risk Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Journal of the Royal Society of Medicine </t>
-  </si>
-  <si>
     <t>1758-1095</t>
   </si>
   <si>
@@ -326,6 +278,54 @@
   </si>
   <si>
     <t>https://journals.sagepub.com/loi/CRI</t>
+  </si>
+  <si>
+    <t>Annals of Clinical Biochemistry</t>
+  </si>
+  <si>
+    <t>Hand Therapy</t>
+  </si>
+  <si>
+    <t>Health Services Management Research</t>
+  </si>
+  <si>
+    <t>International Journal of STD &amp; AIDS</t>
+  </si>
+  <si>
+    <t>Journal of Health Services Research &amp; Policy</t>
+  </si>
+  <si>
+    <t>Journal of Medical Screening</t>
+  </si>
+  <si>
+    <t>Journal of Telemedicine and Telecare</t>
+  </si>
+  <si>
+    <t>Journal of the Royal Society of Medicine</t>
+  </si>
+  <si>
+    <t>Laboratory Animals</t>
+  </si>
+  <si>
+    <t>Medicine, Science and the Law</t>
+  </si>
+  <si>
+    <t>Medico-Legal journal</t>
+  </si>
+  <si>
+    <t>Obstetric Medicine</t>
+  </si>
+  <si>
+    <t>Phlebology</t>
+  </si>
+  <si>
+    <t>Scottish Medical Journal</t>
+  </si>
+  <si>
+    <t>Ultrasound</t>
+  </si>
+  <si>
+    <t>Vascular</t>
   </si>
 </sst>
 </file>
@@ -381,16 +381,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7233B194-C318-40ED-88CA-4A1D3C1BCC2B}" name="Table2" displayName="Table2" ref="A1:G24" totalsRowShown="0">
-  <autoFilter ref="A1:G24" xr:uid="{7233B194-C318-40ED-88CA-4A1D3C1BCC2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EE8C77C-1D1D-4EBF-A0D3-A8F96B39C4F2}" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24" xr:uid="{9EE8C77C-1D1D-4EBF-A0D3-A8F96B39C4F2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0AE87464-3070-44CE-8FD9-912D3903AF53}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{4F747AAA-C224-4E36-BCCA-9CB8C74F17A7}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{8C615DEB-795D-4A86-981B-41E8749A0D62}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{1EA1693D-F2BA-4002-BF76-DA0B60B0DE9E}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{162F6B60-C736-45E5-931E-6274A9C6B0B9}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{B2696AB7-DBCB-4748-AC40-059A9F14B996}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{0E6513F1-1673-4BED-B155-33AB4B18A11F}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{CC116DCD-3D1E-4A4C-ABD3-A81E3AB5B5D8}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{0F443297-41C0-418B-B812-4385DDC61B87}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{41EBFF82-0437-408F-9682-5CA38A3182C9}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{6E47717C-0264-43D7-A24E-FCFBE13F40A9}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{52B52025-2DBA-46B7-9FBA-23DA4684DC01}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{0B29FF39-7358-4DC7-9E30-2DDC9E3BFDE3}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{67EEBCE1-8435-4FD9-970E-AD38C68C330A}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,11 +658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271D52C3-67E0-4AB5-AAFA-A3C5FFDD95DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB4A256-3743-4D21-8D3D-33F31DD2649A}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -701,19 +701,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -724,19 +724,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -770,19 +770,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -793,19 +793,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -816,19 +816,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -839,19 +839,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -862,19 +862,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -885,19 +885,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -908,19 +908,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -931,19 +931,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -954,19 +954,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -977,19 +977,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1000,19 +1000,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1023,19 +1023,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1046,19 +1046,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1069,19 +1069,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1092,19 +1092,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1115,19 +1115,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1138,19 +1138,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1161,19 +1161,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1207,19 +1207,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
